--- a/Copia2.xlsx
+++ b/Copia2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Salud" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Usuarios" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,10 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -436,51 +439,131 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estatura (m)</t>
+          <t xml:space="preserve">Cedula </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>IMC</t>
+          <t>Nombre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Peso (kg)</t>
+          <t>Edad</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EPS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Modo de pago</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cobro</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Vencimiento</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="B2" t="n">
-        <v>28.34467120181406</v>
+        <v>1001015891</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SURA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>220000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>07/06/2021</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="B3" t="n">
-        <v>25.46938775510204</v>
+        <v>43364222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liliana </t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COOMEVA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Transferencia</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>07/06/2021</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.8751147842057</v>
+        <v>70194209</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SURA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>170000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>07/06/2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
